--- a/orion.web/docs/JobReport.xlsx
+++ b/orion.web/docs/JobReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\orion-web\orion.web\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E0BE0-B57A-46FB-BAFE-CDBA0E1C8D7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735C8A8-AC09-48D3-B8D8-D80043199D21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{CE18695A-0F8A-43C1-A856-081F54D40452}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>GM M5 Project  (Silao)</t>
   </si>
@@ -48,9 +48,6 @@
     <t>siteName</t>
   </si>
   <si>
-    <t>Task / Category</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -60,16 +57,58 @@
     <t>Overtime</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
     <t>1/1/2018 thru 6/62019</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Labor Cost</t>
+  </si>
+  <si>
+    <t>Labor Revenue</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Labor Used</t>
+  </si>
+  <si>
+    <t>Labor Budgeted</t>
+  </si>
+  <si>
+    <t>Expenses Used</t>
+  </si>
+  <si>
+    <t>Expenses Budgeted</t>
+  </si>
+  <si>
+    <t>Total Used</t>
+  </si>
+  <si>
+    <t>Total Budgeted</t>
+  </si>
+  <si>
+    <t>Budgeted Multiplier</t>
+  </si>
+  <si>
+    <t>Effective Multiplier</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>Expense</t>
   </si>
 </sst>
 </file>
@@ -88,14 +127,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,6 +155,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -145,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -154,26 +192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -225,77 +243,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,102 +675,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40B4EC7-15E3-4156-9BB2-857B3430EBF4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:F6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
